--- a/2-线性模型（第二章）/Excel/3 逻辑回归.xlsx
+++ b/2-线性模型（第二章）/Excel/3 逻辑回归.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20415"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20416"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ECBC660-DC1A-4529-B53D-F57ACEB9B5FD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9596564F-B236-46F3-B463-2BDB198B4BEB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="40位肺癌患者的生存数据" sheetId="4" r:id="rId1"/>
+    <sheet name="40位肺癌患者的生存数据（书上的医学数据）" sheetId="4" r:id="rId1"/>
     <sheet name="2.5 Logistic regression-书例表2.15" sheetId="1" r:id="rId2"/>
     <sheet name="可视化例子" sheetId="2" r:id="rId3"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId4"/>
@@ -23,33 +23,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="33">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>x1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>x2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>x3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>x4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>x5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -143,6 +123,30 @@
   </si>
   <si>
     <t>参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生活能力评分x1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>患者年龄x2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>由确诊进入观测研究的时间x3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>化疗方法（0：新方法；1：常规方法）x5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自观测研究之日起患者的生存时间y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肿瘤类型（0-3分别表示不同的肿瘤类型）x4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -531,7 +535,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>395261</xdr:colOff>
+      <xdr:colOff>395262</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>40072</xdr:rowOff>
     </xdr:to>
@@ -1015,13 +1019,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{356E6873-6052-4DFB-918E-341DD9FC910F}">
   <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20:L21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="2" max="2" width="14.625" customWidth="1"/>
+    <col min="3" max="4" width="19.75" customWidth="1"/>
+    <col min="5" max="5" width="30.25" customWidth="1"/>
+    <col min="6" max="6" width="42.625" customWidth="1"/>
+    <col min="7" max="7" width="53.75" customWidth="1"/>
+    <col min="8" max="8" width="33.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
@@ -1029,25 +1039,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -2513,6 +2523,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2522,12 +2533,14 @@
   <dimension ref="A1:V42"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="O36" sqref="O36"/>
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="9.25" style="1" customWidth="1"/>
+    <col min="3" max="7" width="9" customWidth="1"/>
     <col min="17" max="17" width="12.5" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="12" customWidth="1"/>
   </cols>
@@ -2537,64 +2550,64 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="R1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="S1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="T1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="U1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="U1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.2">
@@ -2650,7 +2663,7 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="Q2">
         <v>-4.2478967268462586</v>
@@ -2717,10 +2730,10 @@
         <v>0</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="Q3">
         <f>$O$2*(SUMPRODUCT($J$2:$J$41,B$2:B$41)-SUMPRODUCT($H$2:$H$41,B$2:B$41))/40</f>
@@ -2797,7 +2810,7 @@
         <v>0.85</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="Q4">
         <f t="shared" ref="Q4:V4" si="6">Q2-Q3</f>
@@ -4550,7 +4563,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:T101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4562,46 +4577,46 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="7" t="s">
-        <v>21</v>
-      </c>
       <c r="J1" s="7" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
@@ -4648,7 +4663,7 @@
         <v>1E-3</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="N2">
         <v>4.197929442560338</v>
@@ -4706,10 +4721,10 @@
         <v>0</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N3">
         <f>$L$2*(SUMPRODUCT($G$2:$G$101,B$2:B$101)-SUMPRODUCT($E$2:$E$101,B$2:B$101))/100</f>
@@ -4765,7 +4780,7 @@
         <v>0.96</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N4">
         <f>N2-N3</f>
@@ -5003,7 +5018,7 @@
         <v>0</v>
       </c>
       <c r="N10" s="9" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
@@ -5043,7 +5058,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
